--- a/AnimalCrossing/Back/crawling/paintings.xlsx
+++ b/AnimalCrossing/Back/crawling/paintings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
   <si>
     <t>명칭</t>
   </si>
@@ -90,331 +90,480 @@
     <t>가치 있는 명화</t>
   </si>
   <si>
+    <t>입이 살짝 웃는 표정</t>
+  </si>
+  <si>
+    <t>가품 없음</t>
+  </si>
+  <si>
+    <t>진귀한 명화</t>
+  </si>
+  <si>
+    <t>빈센트 반 고흐 作별이 빛나는 밤</t>
+  </si>
+  <si>
+    <t>미스터리한 명화</t>
+  </si>
+  <si>
+    <t>에두아르 마네 作폴리베르제르 바</t>
+  </si>
+  <si>
+    <t>가라앉는 명화</t>
+  </si>
+  <si>
+    <t>장 프랑수아 밀레 作이삭 줍는 여인들</t>
+  </si>
+  <si>
+    <t>혼란스러운 명화의 왼쪽</t>
+  </si>
+  <si>
+    <t>혼란스러운 명화의 오른쪽</t>
+  </si>
+  <si>
+    <t>태고의 조각</t>
+  </si>
+  <si>
+    <t>씩씩한 명화</t>
+  </si>
+  <si>
+    <t>멋들어진 명화</t>
+  </si>
+  <si>
+    <t>절제된 명화</t>
+  </si>
+  <si>
+    <t>섬세한 명화</t>
+  </si>
+  <si>
+    <t>무사의 조각</t>
+  </si>
+  <si>
+    <t>어마어마한 조각</t>
+  </si>
+  <si>
+    <t>투트메스 作네페르티티 흉상</t>
+  </si>
+  <si>
+    <t>작자 미상카피톨리나 늑대상</t>
+  </si>
+  <si>
+    <t>작자 미상로제타 스톤</t>
+  </si>
+  <si>
+    <t>작자 미상밀로의 비너스</t>
+  </si>
+  <si>
+    <t>작자 미상사모트라케의 니케</t>
+  </si>
+  <si>
+    <t>미켈란젤로 부오나로티 作다비드상</t>
+  </si>
+  <si>
+    <t>피터르 브뤼헐 作눈 속의 사냥꾼</t>
+  </si>
+  <si>
+    <t>레오나르도 다 빈치 作모나리자</t>
+  </si>
+  <si>
+    <t>레오나르도 다 빈치 作인체 비례도</t>
+  </si>
+  <si>
+    <t>레오나르도 다 빈치 作담비를 안고 있는 여인</t>
+  </si>
+  <si>
+    <t>산드로 보티첼리 作비너스의 탄생</t>
+  </si>
+  <si>
+    <t>토머스 R. 굴드 作카메하메하 대왕 동상</t>
+  </si>
+  <si>
+    <t>렘브란트 반 레인 作야경</t>
+  </si>
+  <si>
+    <t>요하네스 페르메이르 作진주 귀고리를 한 소녀</t>
+  </si>
+  <si>
+    <t>요하네스 페르메이르 作우유 따르는 하녀</t>
+  </si>
+  <si>
+    <t>토마스 게인즈버러 作파란 옷을 입은 소년</t>
+  </si>
+  <si>
+    <t>프란시스코 데 고야 作옷을 입은 마하</t>
+  </si>
+  <si>
+    <t>외젠 들라크루아 作민중을 이끄는 자유의 여신</t>
+  </si>
+  <si>
+    <t>익숙한 조각</t>
+  </si>
+  <si>
+    <t>훌륭한 명화</t>
+  </si>
+  <si>
+    <t>평온한 명화</t>
+  </si>
+  <si>
+    <t>좋은 명화</t>
+  </si>
+  <si>
+    <t>힘찬 명화</t>
+  </si>
+  <si>
+    <t>다와라야 소타쓰 作풍신뇌신도 병풍(뇌신)</t>
+  </si>
+  <si>
+    <t>다와라야 소타쓰 作풍신뇌신도 병풍(풍신)</t>
+  </si>
+  <si>
+    <t>작자 미상차광기토우</t>
+  </si>
+  <si>
+    <t>도슈사이 샤라쿠 作3대 오타니 오니지의 얏코에도베</t>
+  </si>
+  <si>
+    <t>히시카와 모로노부 作뒤돌아보는 미인</t>
+  </si>
+  <si>
+    <t>이토 쟈쿠츄 作자양화 쌍계도</t>
+  </si>
+  <si>
+    <t>한쪽 귀에 귀걸이가 있음</t>
+  </si>
+  <si>
+    <t>늑대가 혀를 내밀고 있음</t>
+  </si>
+  <si>
+    <t>파란색을 띠고 있음왼쪽 위가 깎여있지 않음밤에 둥근 모양으로 빛이 남</t>
+  </si>
+  <si>
+    <t>원반을 든 손에 손목시계를 차고 있음</t>
+  </si>
+  <si>
+    <t>목걸이를 차고 있음</t>
+  </si>
+  <si>
+    <t>원본과 좌우가 반대</t>
+  </si>
+  <si>
+    <t>옆구리에 책을 끼고 있음</t>
+  </si>
+  <si>
+    <t>가슴에 아티초크가 없음</t>
+  </si>
+  <si>
+    <t>좌측 하단의 사냥개와 사냥꾼의 수가 적음</t>
+  </si>
+  <si>
+    <t>눈썹이 있음</t>
+  </si>
+  <si>
+    <t>우측 상단에 얼룩이 있음</t>
+  </si>
+  <si>
+    <t>담비에게 회색 얼룩무늬가 있음</t>
+  </si>
+  <si>
+    <t>우측 상단에 월계수와 오렌지나무가 없음</t>
+  </si>
+  <si>
+    <t>바닝 코크 대장(가운데의 검은 옷 입은 사람)이 모자를 쓰고 있지 않음</t>
+  </si>
+  <si>
+    <t>별 모양 귀걸이눈을 감고 있음(밤)</t>
+  </si>
+  <si>
+    <t>따르고 있는 우유의 양이 많음</t>
+  </si>
+  <si>
+    <t>뒤쪽 배경에서 문 쪽에 서 있는 사람의 손이 벽에 닿아있지 않음</t>
+  </si>
+  <si>
+    <t>앞머리가 뱅헤어</t>
+  </si>
+  <si>
+    <t>오귀스트 로댕 作생각하는 사람</t>
+  </si>
+  <si>
+    <t>폴 세잔 作사과와 오렌지</t>
+  </si>
+  <si>
+    <t>반짝이는 명화</t>
+  </si>
+  <si>
+    <t>조르주 쇠라 作그랑드자트 섬의 일요일 오후</t>
+  </si>
+  <si>
+    <t>활기 넘치는 명화</t>
+  </si>
+  <si>
+    <t>에두아르 마네 作피리 부는 소년</t>
+  </si>
+  <si>
+    <t>평범한 명화</t>
+  </si>
+  <si>
+    <t>장 프랑수아 밀레 作씨 뿌리는 사람</t>
+  </si>
+  <si>
+    <t>뇌신의 색이 녹색</t>
+  </si>
+  <si>
+    <t>풍신의 색이 흰색</t>
+  </si>
+  <si>
+    <t>눈썹이 처져있음입이 웃는 표정(밤)</t>
+  </si>
+  <si>
+    <t>여성의 크기가 크고, 오른쪽 기모노 소매 아래에 얼룩이 없음(공통)머리끈이 없음(낮)앞을 보고 있음[12](밤)</t>
+  </si>
+  <si>
+    <t>그림 왼쪽에 문구와 도장이 없고, 수국의 색이 보라색</t>
+  </si>
+  <si>
+    <t>토목공사용 삽을 들고 있음</t>
+  </si>
+  <si>
+    <t>손잡이 달린 뚜껑이 덮여있음</t>
+  </si>
+  <si>
+    <t>영어이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늠름한 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serene_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wistful_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graceful_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주세페 아르침볼도 作여름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolly_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>famous_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scary_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가쓰시카 호쿠사이 作후가쿠 36경 중 가나가와 해변 높은 파도 아래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowery_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calm_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenic_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazing_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quaint_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solemn_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worthy_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 명화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>조셉 말로드 윌리엄 터너 作전함 테메레르</t>
-  </si>
-  <si>
-    <t>입이 살짝 웃는 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 머리의 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작자 미상거대 두상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glowing_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가품 없음</t>
-  </si>
-  <si>
-    <t>진귀한 명화</t>
-  </si>
-  <si>
-    <t>빈센트 반 고흐 作별이 빛나는 밤</t>
-  </si>
-  <si>
-    <t>미스터리한 명화</t>
-  </si>
-  <si>
-    <t>에두아르 마네 作폴리베르제르 바</t>
-  </si>
-  <si>
-    <t>가라앉는 명화</t>
-  </si>
-  <si>
-    <t>장 프랑수아 밀레 作이삭 줍는 여인들</t>
-  </si>
-  <si>
-    <t>혼란스러운 명화의 왼쪽</t>
-  </si>
-  <si>
-    <t>혼란스러운 명화의 오른쪽</t>
-  </si>
-  <si>
-    <t>태고의 조각</t>
-  </si>
-  <si>
-    <t>씩씩한 명화</t>
-  </si>
-  <si>
-    <t>멋들어진 명화</t>
-  </si>
-  <si>
-    <t>절제된 명화</t>
-  </si>
-  <si>
-    <t>섬세한 명화</t>
-  </si>
-  <si>
-    <t>무사의 조각</t>
-  </si>
-  <si>
-    <t>어마어마한 조각</t>
-  </si>
-  <si>
-    <t>투트메스 作네페르티티 흉상</t>
-  </si>
-  <si>
-    <t>작자 미상카피톨리나 늑대상</t>
-  </si>
-  <si>
-    <t>작자 미상로제타 스톤</t>
-  </si>
-  <si>
-    <t>작자 미상[4]원반 던지는 사람</t>
-  </si>
-  <si>
-    <t>작자 미상밀로의 비너스</t>
-  </si>
-  <si>
-    <t>작자 미상사모트라케의 니케</t>
-  </si>
-  <si>
-    <t>미켈란젤로 부오나로티 作다비드상</t>
-  </si>
-  <si>
-    <t>피터르 브뤼헐 作눈 속의 사냥꾼</t>
-  </si>
-  <si>
-    <t>레오나르도 다 빈치 作모나리자</t>
-  </si>
-  <si>
-    <t>레오나르도 다 빈치 作인체 비례도</t>
-  </si>
-  <si>
-    <t>레오나르도 다 빈치 作담비를 안고 있는 여인</t>
-  </si>
-  <si>
-    <t>산드로 보티첼리 作비너스의 탄생</t>
-  </si>
-  <si>
-    <t>토머스 R. 굴드 作카메하메하 대왕 동상</t>
-  </si>
-  <si>
-    <t>렘브란트 반 레인 作야경</t>
-  </si>
-  <si>
-    <t>요하네스 페르메이르 作진주 귀고리를 한 소녀</t>
-  </si>
-  <si>
-    <t>요하네스 페르메이르 作우유 따르는 하녀</t>
-  </si>
-  <si>
-    <t>디에고 벨라스케스 作라스메니나스[7]</t>
-  </si>
-  <si>
-    <t>토마스 게인즈버러 作파란 옷을 입은 소년</t>
-  </si>
-  <si>
-    <t>프란시스코 데 고야 作옷을 입은 마하</t>
-  </si>
-  <si>
-    <t>외젠 들라크루아 作민중을 이끄는 자유의 여신</t>
-  </si>
-  <si>
-    <t>돌 머리의 조각</t>
-  </si>
-  <si>
-    <t>익숙한 조각</t>
-  </si>
-  <si>
-    <t>훌륭한 명화</t>
-  </si>
-  <si>
-    <t>빈센트 반 고흐 作해바라기[8]</t>
-  </si>
-  <si>
-    <t>평온한 명화</t>
-  </si>
-  <si>
-    <t>아놀드 뵈클린[9] 作죽음의 섬[10]</t>
-  </si>
-  <si>
-    <t>좋은 명화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinking_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>존 에버렛 밀레이 作오필리아</t>
-  </si>
-  <si>
-    <t>힘찬 명화</t>
-  </si>
-  <si>
-    <t>다와라야 소타쓰 作풍신뇌신도 병풍(뇌신)</t>
-  </si>
-  <si>
-    <t>다와라야 소타쓰 作풍신뇌신도 병풍(풍신)</t>
-  </si>
-  <si>
-    <t>작자 미상차광기토우</t>
-  </si>
-  <si>
-    <t>도슈사이 샤라쿠 作3대 오타니 오니지의 얏코에도베</t>
-  </si>
-  <si>
-    <t>가쓰시카 호쿠사이 作후가쿠 36경 중 가나가와 해변 높은 파도 아래</t>
-  </si>
-  <si>
-    <t>히시카와 모로노부 作뒤돌아보는 미인</t>
-  </si>
-  <si>
-    <t>이토 쟈쿠츄 作자양화 쌍계도</t>
-  </si>
-  <si>
-    <t>작자 미상병마용</t>
-  </si>
-  <si>
-    <t>작자 미상후모무정</t>
-  </si>
-  <si>
-    <t>한쪽 귀에 귀걸이가 있음</t>
-  </si>
-  <si>
-    <t>늑대가 혀를 내밀고 있음</t>
-  </si>
-  <si>
-    <t>파란색을 띠고 있음왼쪽 위가 깎여있지 않음밤에 둥근 모양으로 빛이 남</t>
-  </si>
-  <si>
-    <t>원반을 든 손에 손목시계를 차고 있음</t>
-  </si>
-  <si>
-    <t>목걸이를 차고 있음</t>
-  </si>
-  <si>
-    <t>원본과 좌우가 반대</t>
-  </si>
-  <si>
-    <t>옆구리에 책을 끼고 있음</t>
-  </si>
-  <si>
-    <t>가슴에 아티초크가 없음</t>
-  </si>
-  <si>
-    <t>좌측 하단의 사냥개와 사냥꾼의 수가 적음</t>
-  </si>
-  <si>
-    <t>눈썹이 있음</t>
-  </si>
-  <si>
-    <t>우측 상단에 얼룩이 있음</t>
-  </si>
-  <si>
-    <t>담비에게 회색 얼룩무늬가 있음</t>
-  </si>
-  <si>
-    <t>우측 상단에 월계수와 오렌지나무가 없음</t>
-  </si>
-  <si>
-    <t>바닝 코크 대장(가운데의 검은 옷 입은 사람)이 모자를 쓰고 있지 않음</t>
-  </si>
-  <si>
-    <t>별 모양 귀걸이눈을 감고 있음(밤)</t>
-  </si>
-  <si>
-    <t>따르고 있는 우유의 양이 많음</t>
-  </si>
-  <si>
-    <t>뒤쪽 배경에서 문 쪽에 서 있는 사람의 손이 벽에 닿아있지 않음</t>
-  </si>
-  <si>
-    <t>앞머리가 뱅헤어</t>
-  </si>
-  <si>
-    <t>빛의 명화</t>
-  </si>
-  <si>
-    <t>작자 미상거대 두상</t>
-  </si>
-  <si>
-    <t>오귀스트 로댕 作생각하는 사람</t>
-  </si>
-  <si>
-    <t>폴 세잔 作사과와 오렌지</t>
-  </si>
-  <si>
-    <t>반짝이는 명화</t>
-  </si>
-  <si>
-    <t>조르주 쇠라 作그랑드자트 섬의 일요일 오후</t>
-  </si>
-  <si>
-    <t>활기 넘치는 명화</t>
-  </si>
-  <si>
-    <t>에두아르 마네 作피리 부는 소년</t>
-  </si>
-  <si>
-    <t>평범한 명화</t>
-  </si>
-  <si>
-    <t>장 프랑수아 밀레 作씨 뿌리는 사람</t>
-  </si>
-  <si>
-    <t>뇌신의 색이 녹색</t>
-  </si>
-  <si>
-    <t>풍신의 색이 흰색</t>
-  </si>
-  <si>
-    <t>머리에 안테나가 달려있음눈에서 푸른 빛이 남(밤)[11]</t>
-  </si>
-  <si>
-    <t>눈썹이 처져있음입이 웃는 표정(밤)</t>
-  </si>
-  <si>
-    <t>여성의 크기가 크고, 오른쪽 기모노 소매 아래에 얼룩이 없음(공통)머리끈이 없음(낮)앞을 보고 있음[12](밤)</t>
-  </si>
-  <si>
-    <t>그림 왼쪽에 문구와 도장이 없고, 수국의 색이 보라색</t>
-  </si>
-  <si>
-    <t>토목공사용 삽을 들고 있음</t>
-  </si>
-  <si>
-    <t>손잡이 달린 뚜껑이 덮여있음</t>
-  </si>
-  <si>
-    <t>영어이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>늠름한 조각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>serene_painting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>warm_painting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wistful_painting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>academic_painting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>graceful_painting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가품 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가품 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가품 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가품 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주세페 아르침볼도 作여름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jolly_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proper_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysterious_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아놀드 뵈클린 作죽음의 섬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈센트 반 고흐 作해바라기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twinkling_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild_painting_left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild_painting_right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailed_painting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrior_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherly_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beautiful_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>robust_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작자 미상 원반 던지는 사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallant_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>informative_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 안테나가 달려있음눈에서 푸른 빛이 남(밤)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디에고 벨라스케스 作라스메니나스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작자 미상 후모무정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작자 미상 병마용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremendous_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mystic_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockhead_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valiant_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>great_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiar_statue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_painting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -802,16 +951,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="39.69921875" customWidth="1"/>
     <col min="5" max="5" width="63.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -820,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -837,11 +987,14 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -851,11 +1004,14 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -865,11 +1021,14 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -879,11 +1038,14 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -893,11 +1055,14 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -907,11 +1072,14 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -919,13 +1087,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -936,13 +1107,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -952,11 +1123,14 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -966,11 +1140,14 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -981,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -998,13 +1175,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1014,11 +1191,14 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1029,13 +1209,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1045,11 +1225,14 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1060,13 +1243,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1076,11 +1259,14 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1090,11 +1276,14 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1104,11 +1293,14 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1119,55 +1311,64 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1175,13 +1376,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1189,16 +1393,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1206,13 +1410,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1220,13 +1427,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1234,13 +1444,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1248,16 +1461,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1265,13 +1478,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1279,13 +1495,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1293,13 +1512,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1307,13 +1529,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1321,13 +1546,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1335,16 +1563,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1352,16 +1580,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1369,13 +1597,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1383,13 +1614,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1397,13 +1631,84 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
-        <v>114</v>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
